--- a/Processed Results/Mi 9T/Networking/Networking - Processed.xlsx
+++ b/Processed Results/Mi 9T/Networking/Networking - Processed.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\Networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABDABFD-37F8-4DCF-931D-0251FEF2E9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CD81D3-B00F-4FE6-9FE0-70F1871B467C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="370" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="410" yWindow="290" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad1!$A$98:$A$187</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad1!$B$98:$B$187</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$34:$A$63</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$33</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$34:$B$63</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$A$66:$A$95</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$B$65</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$66:$A$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$65</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad1!$B$66:$B$95</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad1!$A$34:$A$63</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad1!$B$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad1!$B$34:$B$63</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad1!$A$98:$A$187</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad1!$B$98:$B$187</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="20">
   <si>
     <t>Mean line</t>
   </si>
@@ -101,6 +99,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2111,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2229,10 +2233,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2350,10 +2354,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2391,7 +2395,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3F5A16A3-6E4C-4475-A634-1322A70DC713}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Medium_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2478,10 +2482,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2519,7 +2523,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{138ACD3C-CAEA-4AEF-B3DF-B982F1EA92CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>High_frequency</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7211,10 +7215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P92" sqref="P92"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7428,7 +7432,7 @@
         <v>7.6138685025933945</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -7436,23 +7440,37 @@
         <v>130.93689599999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1">
         <v>111.550608</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>119.97252</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 95.321842) * 100) - 100</f>
+        <v>19.703588606690971</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 95.22216) * 100) - 100</f>
+        <v>16.56366963320302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7460,7 +7478,7 @@
         <v>107.895816</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7468,7 +7486,7 @@
         <v>107.419104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -7476,7 +7494,7 @@
         <v>107.2602</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -7484,7 +7502,7 @@
         <v>106.14787200000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7492,7 +7510,7 @@
         <v>112.504032</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -7500,7 +7518,7 @@
         <v>105.19444799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -7508,7 +7526,7 @@
         <v>110.597184</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -7516,7 +7534,7 @@
         <v>109.008144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -7524,7 +7542,7 @@
         <v>112.980744</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7532,7 +7550,7 @@
         <v>109.008144</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7540,7 +7558,7 @@
         <v>111.709512</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7548,7 +7566,7 @@
         <v>127.1232</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -7755,7 +7773,7 @@
         <v>7.2109554805592602</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -7763,23 +7781,37 @@
         <v>115.65665999999899</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="1">
         <v>116.758152</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="1">
         <v>114.55516799999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f xml:space="preserve"> ((E35 / 95.321842) * 100) - 100</f>
+        <v>22.55438202715365</v>
+      </c>
+      <c r="F51">
+        <f xml:space="preserve"> ((E42 / 95.22216) * 100) - 100</f>
+        <v>20.633558406992663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7787,7 +7819,7 @@
         <v>125.412731999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -7795,7 +7827,7 @@
         <v>115.499303999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -7803,7 +7835,7 @@
         <v>113.453676</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -7811,7 +7843,7 @@
         <v>116.91550799999899</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -7819,7 +7851,7 @@
         <v>118.174356</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -7827,7 +7859,7 @@
         <v>113.453676</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -7835,7 +7867,7 @@
         <v>110.77862399999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -7843,7 +7875,7 @@
         <v>116.600796</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -7851,7 +7883,7 @@
         <v>112.82425199999901</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -7859,7 +7891,7 @@
         <v>111.250692</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -7867,7 +7899,7 @@
         <v>97.560720000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -7875,7 +7907,7 @@
         <v>110.46391199999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -8082,7 +8114,7 @@
         <v>11.396328866130942</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -8090,23 +8122,37 @@
         <v>117.554976</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="1">
         <v>111.550823999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>122.769108</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f xml:space="preserve"> ((E68 / 95.321842) * 100) - 100</f>
+        <v>26.214002872499819</v>
+      </c>
+      <c r="F83">
+        <f xml:space="preserve"> ((E74 / 95.22216) * 100) - 100</f>
+        <v>23.785244947184552</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -8114,7 +8160,7 @@
         <v>114.868907999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -8122,7 +8168,7 @@
         <v>118.186992</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -8130,7 +8176,7 @@
         <v>118.503</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -8138,7 +8184,7 @@
         <v>118.186992</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -8146,7 +8192,7 @@
         <v>115.500923999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -8154,7 +8200,7 @@
         <v>125.29717199999899</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -8162,7 +8208,7 @@
         <v>123.401124</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -8170,7 +8216,7 @@
         <v>115.658928</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -8178,7 +8224,7 @@
         <v>114.236892</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -8186,7 +8232,7 @@
         <v>114.07888800000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -8194,7 +8240,7 @@
         <v>115.658928</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -8202,7 +8248,7 @@
         <v>111.076812</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -8330,23 +8376,37 @@
         <v>112.504032</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="1">
         <v>130.93689599999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="1">
         <v>111.550608</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D114">
+        <f xml:space="preserve"> (D19 + D51 + D83) / 3</f>
+        <v>22.823991168781479</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> (F19 + F51 + F83) / 3</f>
+        <v>20.327490995793411</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -8354,7 +8414,7 @@
         <v>119.97252</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -8362,7 +8422,7 @@
         <v>107.895816</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -8370,7 +8430,7 @@
         <v>107.419104</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -8378,7 +8438,7 @@
         <v>107.2602</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -8386,7 +8446,7 @@
         <v>106.14787200000001</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -8394,7 +8454,7 @@
         <v>112.504032</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -8402,7 +8462,7 @@
         <v>105.19444799999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -8410,7 +8470,7 @@
         <v>110.597184</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -8418,7 +8478,7 @@
         <v>109.008144</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -8426,7 +8486,7 @@
         <v>112.980744</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -8434,7 +8494,7 @@
         <v>109.008144</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -8442,7 +8502,7 @@
         <v>111.709512</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -8450,7 +8510,7 @@
         <v>127.1232</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
